--- a/data/05_input/os.mo20a3.xlsx
+++ b/data/05_input/os.mo20a3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/77ED7A5A-8B25-420A-8846-1DE4BE5A1804/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Osativa/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/E60F129C-249D-430A-96DC-F5444A741FE5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD9C8C-0A82-614B-B1D9-909D0BB8D3C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E210EEC-F4E9-0044-AC51-E7F94EBC1F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11800" yWindow="2600" windowWidth="18840" windowHeight="16100" xr2:uid="{05626723-772A-D144-9C8B-8EBB9624019A}"/>
   </bookViews>
@@ -209,196 +209,196 @@
     <t>control</t>
   </si>
   <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M14_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M14_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M14-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M14-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m16_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m16_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m16_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m16_cold_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m17_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m17_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m17_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m17_cold_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M18_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M18_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M18-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M18-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M21_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M21_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M21-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M21-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M24_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M24_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M24-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M24-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M25_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M25_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M25-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M25-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M29_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M29_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M29-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M29-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M30_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M30_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M30-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M30-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m32_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m32_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m32_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m32_cold_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m34_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m34_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m34_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m34_cold_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M37_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M37_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M37-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M37-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m39_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m39_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m39_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m39_cold_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m43_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m43_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m43_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m43_cold_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M42_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M42_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M42-C_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/M42-C_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m45_ck_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m45_ck_2.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m45_cold_1.fq.gz</t>
-  </si>
-  <si>
-    <t>s3://zhoup-barn/Osativa/raw_seqs/rice_cold/RNA-Seq/m45_cold_2.fq.gz</t>
+    <t>M14_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M14_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M14-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M14-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m16_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m16_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m16_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m16_cold_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m17_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m17_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m17_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m17_cold_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M18_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M18_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M18-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M18-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M21_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M21_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M21-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M21-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M24_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M24_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M24-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M24-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M25_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M25_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M25-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M25-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M29_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M29_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M29-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M29-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M30_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M30_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M30-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M30-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m32_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m32_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m32_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m32_cold_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m34_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m34_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m34_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m34_cold_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M37_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M37_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M37-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M37-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m39_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m39_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m39_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m39_cold_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m43_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m43_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m43_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m43_cold_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M42_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M42_2.fq.gz</t>
+  </si>
+  <si>
+    <t>M42-C_1.fq.gz</t>
+  </si>
+  <si>
+    <t>M42-C_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m45_ck_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m45_ck_2.fq.gz</t>
+  </si>
+  <si>
+    <t>m45_cold_1.fq.gz</t>
+  </si>
+  <si>
+    <t>m45_cold_2.fq.gz</t>
   </si>
 </sst>
 </file>
@@ -758,11 +758,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB5AFD-73AF-BB45-82BC-8335A4A04099}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
